--- a/ExecutionTestData/2/TestData.xlsx
+++ b/ExecutionTestData/2/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ExecutionTestData\Batch2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jai Mata Dii\DBS_Automation\ExecutionTestData\2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="146">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -477,36 +477,6 @@
   </si>
   <si>
     <t>121212</t>
-  </si>
-  <si>
-    <t>10.0.0</t>
-  </si>
-  <si>
-    <t>12.0.0</t>
-  </si>
-  <si>
-    <t>GOOGLE_Pixel2_Android_11.0.0_c2579</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyS10_Android_9.0.0_01e83</t>
-  </si>
-  <si>
-    <t>GOOGLE_Pixel3_Android_12.0.0_a6091</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyS10_Android_12.0.0_d2537</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyA72018_Android_10.0.0_ef0ba</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyM51_Android_11.0.0_9e3a9</t>
-  </si>
-  <si>
-    <t>GOOGLE_PixelXL_Android_10.0.0_53dda</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyNote10Plus_Android_12.0.0_513d6</t>
   </si>
 </sst>
 </file>
@@ -638,7 +608,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -691,70 +661,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCC4125"/>
-          <bgColor rgb="FFCC4125"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCC4125"/>
-          <bgColor rgb="FFCC4125"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCC4125"/>
-          <bgColor rgb="FFCC4125"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1256,7 +1177,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
@@ -1266,77 +1187,20 @@
   <cols>
     <col min="2" max="2" width="37.85546875" customWidth="1"/>
     <col min="3" max="3" width="42" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" customWidth="1"/>
-    <col min="8" max="21" width="17.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="9" customFormat="1">
+    <row r="1" spans="1:3" s="9" customFormat="1">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="M1" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="N1" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="O1" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="P1" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q1" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="R1" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="S1" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="T1" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="U1" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
@@ -1346,62 +1210,8 @@
       <c r="C2" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="D2" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="N2" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="O2" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="P2" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q2" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="R2" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="S2" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="T2" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="U2" s="22" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
@@ -1411,62 +1221,8 @@
       <c r="C3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="O3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="P3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="R3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="S3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="T3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="U3" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
@@ -1476,62 +1232,8 @@
       <c r="C4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="R4" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="S4" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="U4" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
@@ -1541,62 +1243,8 @@
       <c r="C5" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="P5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="R5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="S5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="T5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="U5" s="19" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
@@ -1606,62 +1254,8 @@
       <c r="C6" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="M6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="N6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="O6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="P6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="R6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="S6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="T6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="U6" s="15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
@@ -1671,62 +1265,8 @@
       <c r="C7" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="L7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="N7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="O7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="P7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="R7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="S7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="T7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="U7" s="16" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
@@ -1736,62 +1276,8 @@
       <c r="C8" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="M8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="N8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="O8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="P8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="R8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="S8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="T8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="U8" s="16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -1801,62 +1287,8 @@
       <c r="C9" s="18">
         <v>2</v>
       </c>
-      <c r="D9" s="18">
-        <v>3</v>
-      </c>
-      <c r="E9" s="18">
-        <v>4</v>
-      </c>
-      <c r="F9" s="18">
-        <v>5</v>
-      </c>
-      <c r="G9" s="18">
-        <v>6</v>
-      </c>
-      <c r="H9" s="18">
-        <v>7</v>
-      </c>
-      <c r="I9" s="18">
-        <v>8</v>
-      </c>
-      <c r="J9" s="18">
-        <v>9</v>
-      </c>
-      <c r="K9" s="18">
-        <v>10</v>
-      </c>
-      <c r="L9" s="18">
-        <v>11</v>
-      </c>
-      <c r="M9" s="18">
-        <v>12</v>
-      </c>
-      <c r="N9" s="18">
-        <v>13</v>
-      </c>
-      <c r="O9" s="18">
-        <v>14</v>
-      </c>
-      <c r="P9" s="18">
-        <v>15</v>
-      </c>
-      <c r="Q9" s="18">
-        <v>16</v>
-      </c>
-      <c r="R9" s="18">
-        <v>17</v>
-      </c>
-      <c r="S9" s="18">
-        <v>18</v>
-      </c>
-      <c r="T9" s="18">
-        <v>19</v>
-      </c>
-      <c r="U9" s="18">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
@@ -1866,69 +1298,15 @@
       <c r="C10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="O10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="P10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="R10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="S10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="T10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="U10" s="16" t="s">
-        <v>32</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:U2">
-    <cfRule type="beginsWith" dxfId="3" priority="1" operator="beginsWith" text="Working">
+  <conditionalFormatting sqref="B2:C2">
+    <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:U2">
-    <cfRule type="beginsWith" dxfId="1" priority="2" operator="beginsWith" text="Not Working">
+  <conditionalFormatting sqref="B2:C2">
+    <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not Working">
       <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ExecutionTestData/2/TestData.xlsx
+++ b/ExecutionTestData/2/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jai Mata Dii\DBS_Automation\ExecutionTestData\2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\finalList9Feb\batches\Batch2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Capabilities" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="158">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -478,12 +478,48 @@
   <si>
     <t>121212</t>
   </si>
+  <si>
+    <t>10.0.0</t>
+  </si>
+  <si>
+    <t>12.0.0</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyS10_Android_9.0.0_01e83</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyS10_Android_12.0.0_d2537</t>
+  </si>
+  <si>
+    <t>REALME_7i_Android_10.0.0_3e0a3</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyA72018_Android_10.0.0_ef0ba</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyM51_Android_11.0.0_9e3a9</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyNote10Plus_Android_12.0.0_513d6</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyA03_Android_11.0.0_0a1a4</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyA72_Android_12.0.0_0e2fb</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyTabA7_Android_11.0.0_6ddce</t>
+  </si>
+  <si>
+    <t>REALME_9i_Android_11.0.0_2410</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -530,11 +566,6 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF202124"/>
-      <name val="Roboto"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -550,7 +581,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -603,12 +634,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -660,16 +704,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -994,11 +1035,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.140625" style="3" bestFit="1" customWidth="1"/>
@@ -1019,7 +1060,7 @@
     <col min="17" max="16384" width="14.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1069,7 +1110,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1119,7 +1160,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="6" customFormat="1">
+    <row r="3" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1177,41 +1218,146 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="37.85546875" customWidth="1"/>
     <col min="3" max="3" width="42" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" customWidth="1"/>
+    <col min="8" max="20" width="17.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="9" customFormat="1">
+    <row r="1" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>79</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="S1" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="G2" s="20" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="H2" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="R2" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="S2" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="T2" s="23" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
@@ -1221,8 +1367,59 @@
       <c r="C3" s="17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="T3" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
@@ -1232,8 +1429,59 @@
       <c r="C4" s="12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
@@ -1243,8 +1491,59 @@
       <c r="C5" s="19" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="P5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="R5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="S5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="T5" s="19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
@@ -1254,8 +1553,59 @@
       <c r="C6" s="15" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="S6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="T6" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
@@ -1265,8 +1615,59 @@
       <c r="C7" s="16" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="R7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="S7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="T7" s="16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
@@ -1276,8 +1677,59 @@
       <c r="C8" s="16" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="R8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="S8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="T8" s="16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -1287,8 +1739,59 @@
       <c r="C9" s="18">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="18">
+        <v>3</v>
+      </c>
+      <c r="E9" s="18">
+        <v>4</v>
+      </c>
+      <c r="F9" s="18">
+        <v>5</v>
+      </c>
+      <c r="G9" s="18">
+        <v>6</v>
+      </c>
+      <c r="H9" s="18">
+        <v>7</v>
+      </c>
+      <c r="I9" s="18">
+        <v>8</v>
+      </c>
+      <c r="J9" s="18">
+        <v>9</v>
+      </c>
+      <c r="K9" s="18">
+        <v>10</v>
+      </c>
+      <c r="L9" s="18">
+        <v>11</v>
+      </c>
+      <c r="M9" s="18">
+        <v>12</v>
+      </c>
+      <c r="N9" s="18">
+        <v>13</v>
+      </c>
+      <c r="O9" s="18">
+        <v>14</v>
+      </c>
+      <c r="P9" s="18">
+        <v>15</v>
+      </c>
+      <c r="Q9" s="18">
+        <v>16</v>
+      </c>
+      <c r="R9" s="18">
+        <v>17</v>
+      </c>
+      <c r="S9" s="18">
+        <v>18</v>
+      </c>
+      <c r="T9" s="18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
@@ -1298,14 +1801,65 @@
       <c r="C10" s="16" t="s">
         <v>32</v>
       </c>
+      <c r="D10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="R10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="S10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="T10" s="16" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:C2">
+  <conditionalFormatting sqref="B2:T2">
     <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:C2">
+  <conditionalFormatting sqref="B2:T2">
     <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not Working">
       <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>
@@ -1323,7 +1877,7 @@
       <selection activeCell="B2" sqref="B2:U3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
@@ -1347,7 +1901,7 @@
     <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>1</v>
       </c>
@@ -1409,8 +1963,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
@@ -1474,8 +2028,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="23"/>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="21"/>
       <c r="B3">
         <v>121212</v>
       </c>
@@ -1537,37 +2091,37 @@
         <v>121212</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="75">
+    <row r="5" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="75">
+    <row r="6" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="120">
+    <row r="7" spans="1:21" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="60">
+    <row r="8" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="45">
+    <row r="9" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>1</v>
       </c>
@@ -1590,8 +2144,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
-      <c r="A12" s="24" t="s">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
         <v>62</v>
       </c>
       <c r="B12" t="s">
@@ -1616,8 +2170,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
-      <c r="A13" s="24"/>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
       <c r="B13">
         <v>121212</v>
       </c>
@@ -1640,32 +2194,32 @@
         <v>121212</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="75">
+    <row r="15" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="75">
+    <row r="16" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="120">
+    <row r="17" spans="1:1" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="60">
+    <row r="18" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="45">
+    <row r="19" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>60</v>
       </c>
@@ -1688,332 +2242,332 @@
       <selection sqref="A1:A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" thickBot="1">
+    <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" thickBot="1">
+    <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75" thickBot="1">
+    <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.75" thickBot="1">
+    <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.75" thickBot="1">
+    <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.75" thickBot="1">
+    <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.75" thickBot="1">
+    <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15.75" thickBot="1">
+    <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.75" thickBot="1">
+    <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15.75" thickBot="1">
+    <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15.75" thickBot="1">
+    <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.75" thickBot="1">
+    <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="15.75" thickBot="1">
+    <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="15.75" thickBot="1">
+    <row r="14" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="15.75" thickBot="1">
+    <row r="15" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="15.75" thickBot="1">
+    <row r="16" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.75" thickBot="1">
+    <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15.75" thickBot="1">
+    <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" thickBot="1">
+    <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15.75" thickBot="1">
+    <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15.75" thickBot="1">
+    <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15.75" thickBot="1">
+    <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15.75" thickBot="1">
+    <row r="23" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15.75" thickBot="1">
+    <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15.75" thickBot="1">
+    <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="15.75" thickBot="1">
+    <row r="26" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="15.75" thickBot="1">
+    <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="15.75" thickBot="1">
+    <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="15.75" thickBot="1">
+    <row r="29" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="15.75" thickBot="1">
+    <row r="30" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="15.75" thickBot="1">
+    <row r="31" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="15.75" thickBot="1">
+    <row r="32" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="15.75" thickBot="1">
+    <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="15.75" thickBot="1">
+    <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="15.75" thickBot="1">
+    <row r="35" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="15.75" thickBot="1">
+    <row r="36" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="15.75" thickBot="1">
+    <row r="37" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="15.75" thickBot="1">
+    <row r="38" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="15.75" thickBot="1">
+    <row r="39" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="15.75" thickBot="1">
+    <row r="40" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="15.75" thickBot="1">
+    <row r="41" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="15.75" thickBot="1">
+    <row r="42" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="15.75" thickBot="1">
+    <row r="43" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15.75" thickBot="1">
+    <row r="44" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="15.75" thickBot="1">
+    <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="15.75" thickBot="1">
+    <row r="46" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="15.75" thickBot="1">
+    <row r="47" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="15.75" thickBot="1">
+    <row r="48" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="15.75" thickBot="1">
+    <row r="49" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="15.75" thickBot="1">
+    <row r="50" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="15.75" thickBot="1">
+    <row r="51" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="13" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="15.75" thickBot="1">
+    <row r="52" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="13" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="15.75" thickBot="1">
+    <row r="53" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="13" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="15.75" thickBot="1">
+    <row r="54" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="15.75" thickBot="1">
+    <row r="55" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="13" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="15.75" thickBot="1">
+    <row r="56" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="15.75" thickBot="1">
+    <row r="57" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="13" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="15.75" thickBot="1">
+    <row r="58" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="13" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="15.75" thickBot="1">
+    <row r="59" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="13" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="15.75" thickBot="1">
+    <row r="60" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="13" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="15.75" thickBot="1">
+    <row r="61" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="13" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="15.75" thickBot="1">
+    <row r="62" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="13" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="15.75" thickBot="1">
+    <row r="63" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="13" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="15.75" thickBot="1">
+    <row r="64" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="15.75" thickBot="1">
+    <row r="65" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="13" t="s">
         <v>138</v>
       </c>

--- a/ExecutionTestData/2/TestData.xlsx
+++ b/ExecutionTestData/2/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\finalList9Feb\batches\Batch2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jai Mata Dii\DBS_Automation\ExecutionTestData\2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Capabilities" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="146">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -477,42 +477,6 @@
   </si>
   <si>
     <t>121212</t>
-  </si>
-  <si>
-    <t>10.0.0</t>
-  </si>
-  <si>
-    <t>12.0.0</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyS10_Android_9.0.0_01e83</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyS10_Android_12.0.0_d2537</t>
-  </si>
-  <si>
-    <t>REALME_7i_Android_10.0.0_3e0a3</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyA72018_Android_10.0.0_ef0ba</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyM51_Android_11.0.0_9e3a9</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyNote10Plus_Android_12.0.0_513d6</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyA03_Android_11.0.0_0a1a4</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyA72_Android_12.0.0_0e2fb</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyTabA7_Android_11.0.0_6ddce</t>
-  </si>
-  <si>
-    <t>REALME_9i_Android_11.0.0_2410</t>
   </si>
 </sst>
 </file>
@@ -581,7 +545,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -634,25 +598,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -710,7 +661,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1035,7 +985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -1218,22 +1168,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="37.85546875" customWidth="1"/>
     <col min="3" max="3" width="42" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" customWidth="1"/>
-    <col min="8" max="20" width="17.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
@@ -1243,59 +1190,8 @@
       <c r="C1" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="M1" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="N1" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="O1" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="P1" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q1" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="R1" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="S1" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="T1" s="23" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
@@ -1305,59 +1201,8 @@
       <c r="C2" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="O2" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="P2" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q2" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="R2" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="S2" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="T2" s="23" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
@@ -1367,59 +1212,8 @@
       <c r="C3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="O3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="P3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="R3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="S3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="T3" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
@@ -1429,59 +1223,8 @@
       <c r="C4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="R4" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="S4" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
@@ -1491,59 +1234,8 @@
       <c r="C5" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="P5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="R5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="S5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="T5" s="19" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
@@ -1553,59 +1245,8 @@
       <c r="C6" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="M6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="N6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="O6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="P6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="R6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="S6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="T6" s="15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
@@ -1615,59 +1256,8 @@
       <c r="C7" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="L7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="N7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="O7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="P7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="R7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="S7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="T7" s="16" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
@@ -1677,59 +1267,8 @@
       <c r="C8" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="M8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="N8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="O8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="P8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="R8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="S8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="T8" s="16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -1739,59 +1278,8 @@
       <c r="C9" s="18">
         <v>2</v>
       </c>
-      <c r="D9" s="18">
-        <v>3</v>
-      </c>
-      <c r="E9" s="18">
-        <v>4</v>
-      </c>
-      <c r="F9" s="18">
-        <v>5</v>
-      </c>
-      <c r="G9" s="18">
-        <v>6</v>
-      </c>
-      <c r="H9" s="18">
-        <v>7</v>
-      </c>
-      <c r="I9" s="18">
-        <v>8</v>
-      </c>
-      <c r="J9" s="18">
-        <v>9</v>
-      </c>
-      <c r="K9" s="18">
-        <v>10</v>
-      </c>
-      <c r="L9" s="18">
-        <v>11</v>
-      </c>
-      <c r="M9" s="18">
-        <v>12</v>
-      </c>
-      <c r="N9" s="18">
-        <v>13</v>
-      </c>
-      <c r="O9" s="18">
-        <v>14</v>
-      </c>
-      <c r="P9" s="18">
-        <v>15</v>
-      </c>
-      <c r="Q9" s="18">
-        <v>16</v>
-      </c>
-      <c r="R9" s="18">
-        <v>17</v>
-      </c>
-      <c r="S9" s="18">
-        <v>18</v>
-      </c>
-      <c r="T9" s="18">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
@@ -1801,65 +1289,14 @@
       <c r="C10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="O10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="P10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="R10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="S10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="T10" s="16" t="s">
-        <v>32</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:T2">
+  <conditionalFormatting sqref="B2:C2">
     <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:T2">
+  <conditionalFormatting sqref="B2:C2">
     <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not Working">
       <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>

--- a/ExecutionTestData/2/TestData.xlsx
+++ b/ExecutionTestData/2/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jai Mata Dii\DBS_Automation\ExecutionTestData\2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jai Mata Dii\DBS_Automation\ExecutionTestData\skippedBatch2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="152">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -478,12 +478,30 @@
   <si>
     <t>121212</t>
   </si>
+  <si>
+    <t>10.0.0</t>
+  </si>
+  <si>
+    <t>HUAWEI_Honor9A_Android_10.0.0_d1e87</t>
+  </si>
+  <si>
+    <t>VIVO_V9_Android_9.0.0_8f1e4</t>
+  </si>
+  <si>
+    <t>XIAOMI_Redmi10Prime_Android_11.0.0_6ef79</t>
+  </si>
+  <si>
+    <t>XIAOMI_RedmiNote8Pro_Android_10.0.0_d3e8a</t>
+  </si>
+  <si>
+    <t>XIAOMI_XIAOMI_Android_11.0.0_668ba</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,11 +543,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -545,7 +558,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -580,21 +593,6 @@
       </top>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,28 +636,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1168,74 +1168,245 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37.85546875" customWidth="1"/>
-    <col min="3" max="3" width="42" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" style="17"/>
+    <col min="2" max="2" width="37.85546875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="42" style="17" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" style="17" customWidth="1"/>
+    <col min="6" max="13" width="17.140625" style="17"/>
+    <col min="14" max="14" width="36.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="17.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="H2" s="16" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I2" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="17" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
@@ -1245,58 +1416,223 @@
       <c r="C6" s="15" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="19" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="N7" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="19" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="N8" s="19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="14">
         <v>1</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="14">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="D9" s="14">
+        <v>3</v>
+      </c>
+      <c r="E9" s="14">
+        <v>4</v>
+      </c>
+      <c r="F9" s="14">
+        <v>5</v>
+      </c>
+      <c r="G9" s="14">
+        <v>6</v>
+      </c>
+      <c r="H9" s="14">
+        <v>7</v>
+      </c>
+      <c r="I9" s="14">
+        <v>8</v>
+      </c>
+      <c r="J9" s="14">
+        <v>9</v>
+      </c>
+      <c r="K9" s="14">
+        <v>10</v>
+      </c>
+      <c r="L9" s="14">
+        <v>11</v>
+      </c>
+      <c r="M9" s="14">
+        <v>12</v>
+      </c>
+      <c r="N9" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="19" t="s">
         <v>32</v>
       </c>
+      <c r="D10" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" s="19" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:C2">
+  <conditionalFormatting sqref="B2:N2">
     <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:C2">
+  <conditionalFormatting sqref="B2:N2">
     <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not Working">
       <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>
@@ -1401,7 +1737,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
@@ -1466,7 +1802,7 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
+      <c r="A3" s="20"/>
       <c r="B3">
         <v>121212</v>
       </c>
@@ -1582,7 +1918,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="21" t="s">
         <v>62</v>
       </c>
       <c r="B12" t="s">
@@ -1608,7 +1944,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+      <c r="A13" s="21"/>
       <c r="B13">
         <v>121212</v>
       </c>
@@ -1685,327 +2021,327 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="12" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="12" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="12" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="12" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="12" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="12" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="12" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="12" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="12" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="12" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="12" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="12" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="12" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="12" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="12" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="12" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="12" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="12" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="12" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="12" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="12" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="12" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="12" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="12" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="12" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="12" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="12" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="12" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="12" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="12" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="12" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="12" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="12" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="12" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="12" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="12" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="12" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="12" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="12" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="13" t="s">
+      <c r="A54" s="12" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="13" t="s">
+      <c r="A55" s="12" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="13" t="s">
+      <c r="A56" s="12" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="12" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="13" t="s">
+      <c r="A58" s="12" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="12" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="13" t="s">
+      <c r="A60" s="12" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="13" t="s">
+      <c r="A61" s="12" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="13" t="s">
+      <c r="A62" s="12" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="13" t="s">
+      <c r="A63" s="12" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="13" t="s">
+      <c r="A64" s="12" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="13" t="s">
+      <c r="A65" s="12" t="s">
         <v>138</v>
       </c>
     </row>

--- a/ExecutionTestData/2/TestData.xlsx
+++ b/ExecutionTestData/2/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jai Mata Dii\DBS_Automation\ExecutionTestData\skippedBatch2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jai Mata Dii\DBS_Automation\ExecutionTestData\2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="152">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -601,7 +601,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -657,9 +657,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1168,10 +1165,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1180,13 +1177,12 @@
     <col min="2" max="2" width="37.85546875" style="17" customWidth="1"/>
     <col min="3" max="3" width="42" style="17" customWidth="1"/>
     <col min="4" max="4" width="34.140625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" style="17" customWidth="1"/>
-    <col min="6" max="13" width="17.140625" style="17"/>
-    <col min="14" max="14" width="36.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="17.140625" style="17"/>
+    <col min="5" max="11" width="17.140625" style="17"/>
+    <col min="12" max="12" width="36.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="17.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>19</v>
       </c>
@@ -1199,38 +1195,32 @@
       <c r="D1" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="E1" s="22" t="s">
-        <v>123</v>
+      <c r="E1" s="16" t="s">
+        <v>138</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>98</v>
+        <v>148</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="L1" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="N1" s="16" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
@@ -1243,23 +1233,23 @@
       <c r="D2" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="16" t="s">
         <v>146</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>139</v>
       </c>
       <c r="H2" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="J2" s="16" t="s">
         <v>139</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>144</v>
       </c>
       <c r="K2" s="16" t="s">
         <v>146</v>
@@ -1267,14 +1257,8 @@
       <c r="L2" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="M2" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="N2" s="16" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
@@ -1311,14 +1295,8 @@
       <c r="L3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
@@ -1332,37 +1310,31 @@
         <v>36</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4" s="17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
@@ -1399,14 +1371,8 @@
       <c r="L5" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="M5" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="N5" s="18" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
@@ -1443,14 +1409,8 @@
       <c r="L6" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="M6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="N6" s="15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
@@ -1487,14 +1447,8 @@
       <c r="L7" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="M7" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="N7" s="19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
@@ -1531,14 +1485,8 @@
       <c r="L8" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="M8" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="N8" s="19" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -1575,14 +1523,8 @@
       <c r="L9" s="14">
         <v>11</v>
       </c>
-      <c r="M9" s="14">
-        <v>12</v>
-      </c>
-      <c r="N9" s="14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>31</v>
       </c>
@@ -1619,20 +1561,14 @@
       <c r="L10" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" s="19" t="s">
-        <v>32</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:N2">
+  <conditionalFormatting sqref="B2:L2">
     <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:N2">
+  <conditionalFormatting sqref="B2:L2">
     <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not Working">
       <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>

--- a/ExecutionTestData/2/TestData.xlsx
+++ b/ExecutionTestData/2/TestData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jai Mata Dii\DBS_Automation\ExecutionTestData\2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DBS bank\Milestone2_ExecutionTestRun1\Execution Results\ExecutionTestData\New folder\2_skippedBatch2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673A3B6B-5DEA-47AC-82A8-DE5EEC21FA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Capabilities" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="150">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -482,12 +483,6 @@
     <t>10.0.0</t>
   </si>
   <si>
-    <t>HUAWEI_Honor9A_Android_10.0.0_d1e87</t>
-  </si>
-  <si>
-    <t>VIVO_V9_Android_9.0.0_8f1e4</t>
-  </si>
-  <si>
     <t>XIAOMI_Redmi10Prime_Android_11.0.0_6ef79</t>
   </si>
   <si>
@@ -500,7 +495,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -769,6 +764,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -804,6 +816,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -979,7 +1008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
@@ -1164,63 +1193,56 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.140625" style="17"/>
-    <col min="2" max="2" width="37.85546875" style="17" customWidth="1"/>
-    <col min="3" max="3" width="42" style="17" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" style="17" customWidth="1"/>
-    <col min="5" max="11" width="17.140625" style="17"/>
-    <col min="12" max="12" width="36.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="17.140625" style="17"/>
+    <col min="2" max="2" width="42" style="17" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" style="17" customWidth="1"/>
+    <col min="4" max="9" width="17.140625" style="17"/>
+    <col min="10" max="10" width="36.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="17.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>148</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>113</v>
       </c>
       <c r="J1" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="K1" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
@@ -1228,22 +1250,22 @@
         <v>146</v>
       </c>
       <c r="C2" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>144</v>
-      </c>
       <c r="E2" s="16" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>139</v>
       </c>
       <c r="G2" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="H2" s="16" t="s">
         <v>139</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>144</v>
       </c>
       <c r="I2" s="16" t="s">
         <v>146</v>
@@ -1251,14 +1273,8 @@
       <c r="J2" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="K2" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
@@ -1289,52 +1305,40 @@
       <c r="J3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>44</v>
+      <c r="B4" s="17" t="s">
+        <v>35</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="L4" s="17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
@@ -1365,14 +1369,8 @@
       <c r="J5" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="K5" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="L5" s="18" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
@@ -1403,14 +1401,8 @@
       <c r="J6" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="K6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
@@ -1441,14 +1433,8 @@
       <c r="J7" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="K7" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="L7" s="19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
@@ -1479,52 +1465,40 @@
       <c r="J8" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="K8" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="L8" s="19" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F9" s="14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G9" s="14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H9" s="14">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I9" s="14">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J9" s="14">
-        <v>9</v>
-      </c>
-      <c r="K9" s="14">
-        <v>10</v>
-      </c>
-      <c r="L9" s="14">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>31</v>
       </c>
@@ -1555,20 +1529,14 @@
       <c r="J10" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="19" t="s">
-        <v>32</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:L2">
+  <conditionalFormatting sqref="B2:J2">
     <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:L2">
+  <conditionalFormatting sqref="B2:J2">
     <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not Working">
       <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>
@@ -1579,7 +1547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
@@ -1944,7 +1912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A65"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/ExecutionTestData/2/TestData.xlsx
+++ b/ExecutionTestData/2/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3_skipBackup\2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new added device\one plue xiomi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Capabilities" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="154">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -121,12 +121,6 @@
   </si>
   <si>
     <t>DBS</t>
-  </si>
-  <si>
-    <t>sakshi.juneja@crestechsoftware.com</t>
-  </si>
-  <si>
-    <t>t68k6kw68ywjv2y9zwfr9r3t</t>
   </si>
   <si>
     <t>S2021219EUID</t>
@@ -482,20 +476,38 @@
     <t>10.0.0</t>
   </si>
   <si>
+    <t>REALME_X7_Android_11.0.0_f8c45</t>
+  </si>
+  <si>
+    <t>ONEPLUS_8T_Android_11.0.0_f37ff</t>
+  </si>
+  <si>
+    <t>ONEPLUS_9_Android_12.0.0_a5ac6</t>
+  </si>
+  <si>
     <t>XIAOMI_Redmi10Prime_Android_11.0.0_6ef79</t>
   </si>
   <si>
+    <t>XIAOMI_Redmi5_Android_8.1.0_8e5b7</t>
+  </si>
+  <si>
     <t>XIAOMI_RedmiNote8Pro_Android_10.0.0_d3e8a</t>
   </si>
   <si>
+    <t>XIAOMI_RedmiNote9_Android_10.0.0_a7454</t>
+  </si>
+  <si>
     <t>XIAOMI_XIAOMI_Android_11.0.0_668ba</t>
+  </si>
+  <si>
+    <t>12.0.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -537,6 +549,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -552,7 +570,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -590,12 +608,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -640,17 +673,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -976,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1012,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1062,7 +1096,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1089,13 +1123,13 @@
         <v>5</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>21</v>
@@ -1112,7 +1146,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1139,13 +1173,13 @@
         <v>5</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>21</v>
@@ -1161,75 +1195,78 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" style="17"/>
-    <col min="2" max="2" width="42" style="17" customWidth="1"/>
-    <col min="3" max="8" width="17.140625" style="17"/>
-    <col min="9" max="9" width="36.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="17.140625" style="17"/>
+    <col min="1" max="1" width="17.140625" style="16"/>
+    <col min="2" max="2" width="34.140625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="16" customWidth="1"/>
+    <col min="4" max="6" width="17.140625" style="16"/>
+    <col min="7" max="7" width="44.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="17.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="G1" s="16" t="s">
+      <c r="B1" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="D1" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="E1" s="22" t="s">
         <v>149</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>139</v>
+      <c r="B2" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="I2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1265,58 +1302,58 @@
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="D4" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="17" t="s">
+      <c r="F4" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="H4" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>47</v>
+      <c r="I4" s="16" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>145</v>
+      <c r="B5" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1324,86 +1361,86 @@
         <v>27</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>143</v>
+      <c r="B7" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>144</v>
+      <c r="B8" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1414,53 +1451,53 @@
         <v>2</v>
       </c>
       <c r="C9" s="14">
+        <v>3</v>
+      </c>
+      <c r="D9" s="14">
         <v>4</v>
       </c>
-      <c r="D9" s="14">
+      <c r="E9" s="14">
         <v>5</v>
       </c>
-      <c r="E9" s="14">
+      <c r="F9" s="14">
         <v>6</v>
       </c>
-      <c r="F9" s="14">
+      <c r="G9" s="14">
         <v>8</v>
       </c>
-      <c r="G9" s="14">
+      <c r="H9" s="14">
         <v>9</v>
       </c>
-      <c r="H9" s="14">
-        <v>10</v>
-      </c>
       <c r="I9" s="14">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="I10" s="18" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1576,67 +1613,67 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" t="s">
         <v>44</v>
       </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>45</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>46</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>47</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>48</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>49</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>50</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>51</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>52</v>
-      </c>
-      <c r="T2" t="s">
-        <v>53</v>
-      </c>
-      <c r="U2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -1704,32 +1741,32 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -1757,28 +1794,28 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
         <v>62</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>63</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>64</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>65</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>66</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
         <v>67</v>
-      </c>
-      <c r="G12" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -1807,32 +1844,32 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1860,327 +1897,327 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/ExecutionTestData/2/TestData.xlsx
+++ b/ExecutionTestData/2/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new added device\one plue xiomi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newBatchskip-testdata\2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Capabilities" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <sheet name="Test Data" sheetId="5" r:id="rId3"/>
     <sheet name="DeviceMasterSheet" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="148">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -458,9 +458,6 @@
     <t>EndPoint</t>
   </si>
   <si>
-    <t>https://device.pcloudy.com</t>
-  </si>
-  <si>
     <t>Samsung</t>
   </si>
   <si>
@@ -473,41 +470,26 @@
     <t>121212</t>
   </si>
   <si>
-    <t>10.0.0</t>
-  </si>
-  <si>
-    <t>REALME_X7_Android_11.0.0_f8c45</t>
-  </si>
-  <si>
-    <t>ONEPLUS_8T_Android_11.0.0_f37ff</t>
-  </si>
-  <si>
-    <t>ONEPLUS_9_Android_12.0.0_a5ac6</t>
-  </si>
-  <si>
-    <t>XIAOMI_Redmi10Prime_Android_11.0.0_6ef79</t>
-  </si>
-  <si>
-    <t>XIAOMI_Redmi5_Android_8.1.0_8e5b7</t>
-  </si>
-  <si>
-    <t>XIAOMI_RedmiNote8Pro_Android_10.0.0_d3e8a</t>
-  </si>
-  <si>
-    <t>XIAOMI_RedmiNote9_Android_10.0.0_a7454</t>
-  </si>
-  <si>
-    <t>XIAOMI_XIAOMI_Android_11.0.0_668ba</t>
-  </si>
-  <si>
     <t>12.0.0</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyS215G_Android_12.0.0_a4b35</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyS21Ultra5G_Android_11.0.0_7ed46</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyS20Ultra_Android_11.0.0_94a4b</t>
+  </si>
+  <si>
+    <t>https://us.pcloudy.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -549,12 +531,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -570,7 +546,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -605,21 +581,6 @@
       </top>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,27 +624,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1010,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1096,7 +1059,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1146,7 +1109,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1193,323 +1156,168 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" style="16"/>
-    <col min="2" max="2" width="34.140625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" style="16" customWidth="1"/>
-    <col min="4" max="6" width="17.140625" style="16"/>
-    <col min="7" max="7" width="44.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="17.140625" style="16"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="3" max="3" width="42" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>146</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="I1" s="19" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="D2" s="22" t="s">
+      <c r="C2" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="I2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="18">
+        <v>1</v>
+      </c>
+      <c r="C9" s="18">
         <v>2</v>
       </c>
-      <c r="C9" s="14">
+      <c r="D9" s="18">
         <v>3</v>
       </c>
-      <c r="D9" s="14">
-        <v>4</v>
-      </c>
-      <c r="E9" s="14">
-        <v>5</v>
-      </c>
-      <c r="F9" s="14">
-        <v>6</v>
-      </c>
-      <c r="G9" s="14">
-        <v>8</v>
-      </c>
-      <c r="H9" s="14">
-        <v>9</v>
-      </c>
-      <c r="I9" s="14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>32</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:I2">
+  <conditionalFormatting sqref="B2:D2">
     <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:I2">
-    <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not Working">
-      <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
+  <conditionalFormatting sqref="B2:D2">
+    <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not working">
+      <formula>LEFT((B2),LEN("Not working"))=("Not working")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1896,327 +1704,327 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="13" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="13" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="13" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="13" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="13" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="13" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="13" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="13" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="13" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="13" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="13" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="13" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="13" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="13" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="13" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="13" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="13" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="13" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="13" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="13" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="13" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="13" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="13" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="13" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="13" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="13" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="13" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="13" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="13" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="13" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="13" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="13" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="13" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="13" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="13" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="13" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="13" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="13" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="13" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="13" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="13" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="13" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="13" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="13" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="13" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="12" t="s">
+      <c r="A54" s="13" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="13" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="12" t="s">
+      <c r="A56" s="13" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="12" t="s">
+      <c r="A57" s="13" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="13" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="13" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="12" t="s">
+      <c r="A60" s="13" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="12" t="s">
+      <c r="A61" s="13" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="12" t="s">
+      <c r="A62" s="13" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="12" t="s">
+      <c r="A63" s="13" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="12" t="s">
+      <c r="A64" s="13" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="12" t="s">
+      <c r="A65" s="13" t="s">
         <v>136</v>
       </c>
     </row>

--- a/ExecutionTestData/2/TestData.xlsx
+++ b/ExecutionTestData/2/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newBatchskip-testdata\2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newBatchskip-testdata\new android batch added\2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Capabilities" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <sheet name="Test Data" sheetId="5" r:id="rId3"/>
     <sheet name="DeviceMasterSheet" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="154">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -470,19 +470,37 @@
     <t>121212</t>
   </si>
   <si>
+    <t>10.0.0</t>
+  </si>
+  <si>
     <t>12.0.0</t>
   </si>
   <si>
-    <t>SAMSUNG_GalaxyS215G_Android_12.0.0_a4b35</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyS21Ultra5G_Android_11.0.0_7ed46</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyS20Ultra_Android_11.0.0_94a4b</t>
-  </si>
-  <si>
     <t>https://us.pcloudy.com</t>
+  </si>
+  <si>
+    <t>MOTOROLA_One5G_Android_10.0.0_26e33</t>
+  </si>
+  <si>
+    <t>ONEPLUS_9Pro_Android_11.0.0_472fd</t>
+  </si>
+  <si>
+    <t>LG_V30Plus_Android_8.0.0_8c87d</t>
+  </si>
+  <si>
+    <t>LG_V30_Android_8.0.0_29879</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyM30s_Android_10.0.0_6c129</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyNote10Plus_Android_9.0.0_00d4b</t>
+  </si>
+  <si>
+    <t>GOOGLE_Pixel5_Android_12.0.0_5f68e</t>
+  </si>
+  <si>
+    <t>8.0.0</t>
   </si>
 </sst>
 </file>
@@ -546,7 +564,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -584,12 +602,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -646,9 +694,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -973,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1059,7 +1106,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1109,7 +1156,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1156,10 +1203,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1167,37 +1214,63 @@
     <col min="2" max="2" width="37.85546875" customWidth="1"/>
     <col min="3" max="3" width="42" customWidth="1"/>
     <col min="4" max="4" width="34.140625" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C1" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G2" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
@@ -1210,12 +1283,24 @@
       <c r="D3" s="17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="12" t="s">
         <v>42</v>
       </c>
       <c r="C4" s="12" t="s">
@@ -1224,8 +1309,20 @@
       <c r="D4" s="12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
@@ -1238,8 +1335,20 @@
       <c r="D5" s="19" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
@@ -1252,8 +1361,20 @@
       <c r="D6" s="15" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
@@ -1266,8 +1387,20 @@
       <c r="D7" s="16" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
@@ -1280,8 +1413,20 @@
       <c r="D8" s="16" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -1294,8 +1439,20 @@
       <c r="D9" s="18">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="18">
+        <v>4</v>
+      </c>
+      <c r="F9" s="18">
+        <v>5</v>
+      </c>
+      <c r="G9" s="18">
+        <v>6</v>
+      </c>
+      <c r="H9" s="18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
@@ -1308,16 +1465,28 @@
       <c r="D10" s="16" t="s">
         <v>32</v>
       </c>
+      <c r="E10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:D2">
+  <conditionalFormatting sqref="B2:H2">
     <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:D2">
-    <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not working">
-      <formula>LEFT((B2),LEN("Not working"))=("Not working")</formula>
+  <conditionalFormatting sqref="B2:H2">
+    <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not Working">
+      <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1329,8 +1498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:U3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ExecutionTestData/2/TestData.xlsx
+++ b/ExecutionTestData/2/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rerun-mixbatch\2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lastpririority batch\New folder\6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Capabilities" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="153">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -465,9 +465,6 @@
   </si>
   <si>
     <t>APPLE_iPhone11Pro_iOS_13.0.0_3f7e0</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone11Pro_iOS_15.2.1_f9522</t>
   </si>
   <si>
     <t>APPLE_iPhone13ProMax_iOS_15.0.2_2f19</t>
@@ -1020,7 +1017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
@@ -1106,7 +1103,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1133,10 +1130,10 @@
         <v>5</v>
       </c>
       <c r="M2" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="O2" s="11" t="s">
         <v>68</v>
@@ -1156,7 +1153,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1183,10 +1180,10 @@
         <v>5</v>
       </c>
       <c r="M3" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="O3" s="5" t="s">
         <v>69</v>
@@ -1203,21 +1200,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="37.85546875" customWidth="1"/>
     <col min="3" max="3" width="42" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
@@ -1233,25 +1229,22 @@
       <c r="E1" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="G1" s="21" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="12" t="s">
         <v>147</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>146</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>148</v>
@@ -1259,11 +1252,8 @@
       <c r="F2" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
@@ -1282,11 +1272,8 @@
       <c r="F3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
@@ -1297,19 +1284,16 @@
         <v>48</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
@@ -1328,11 +1312,8 @@
       <c r="F5" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="G5" s="19" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
@@ -1351,11 +1332,8 @@
       <c r="F6" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="G6" s="15" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
@@ -1374,11 +1352,8 @@
       <c r="F7" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="G7" s="16" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
@@ -1397,11 +1372,8 @@
       <c r="F8" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="G8" s="16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -1412,19 +1384,16 @@
         <v>2</v>
       </c>
       <c r="D9" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F9" s="18">
-        <v>5</v>
-      </c>
-      <c r="G9" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
@@ -1443,17 +1412,14 @@
       <c r="F10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="16" t="s">
-        <v>32</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:G2">
+  <conditionalFormatting sqref="B2:F2">
     <cfRule type="beginsWith" dxfId="1" priority="3" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:G2">
+  <conditionalFormatting sqref="B2:F2">
     <cfRule type="beginsWith" dxfId="0" priority="4" operator="beginsWith" text="Not Working">
       <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>

--- a/ExecutionTestData/2/TestData.xlsx
+++ b/ExecutionTestData/2/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lastpririority batch\New folder\6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lastpririority batch\8device\2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="151">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -464,9 +464,6 @@
     <t>APPLE_iPhone11_iOS_15.2.1_51b24</t>
   </si>
   <si>
-    <t>APPLE_iPhone11Pro_iOS_13.0.0_3f7e0</t>
-  </si>
-  <si>
     <t>APPLE_iPhone13ProMax_iOS_15.0.2_2f19</t>
   </si>
   <si>
@@ -477,9 +474,6 @@
   </si>
   <si>
     <t>15.2.1</t>
-  </si>
-  <si>
-    <t>13.0.0</t>
   </si>
   <si>
     <t>15.0.2</t>
@@ -1103,7 +1097,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1130,10 +1124,10 @@
         <v>5</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O2" s="11" t="s">
         <v>68</v>
@@ -1153,7 +1147,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1180,10 +1174,10 @@
         <v>5</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O3" s="5" t="s">
         <v>69</v>
@@ -1200,20 +1194,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="37.85546875" customWidth="1"/>
-    <col min="3" max="3" width="42" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
@@ -1226,34 +1219,28 @@
       <c r="D1" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
@@ -1269,11 +1256,8 @@
       <c r="E3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
@@ -1281,19 +1265,16 @@
         <v>47</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
@@ -1309,11 +1290,8 @@
       <c r="E5" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="F5" s="19" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
@@ -1329,11 +1307,8 @@
       <c r="E6" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
@@ -1349,11 +1324,8 @@
       <c r="E7" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="F7" s="16" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
@@ -1369,11 +1341,8 @@
       <c r="E8" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="F8" s="16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -1381,19 +1350,16 @@
         <v>1</v>
       </c>
       <c r="C9" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9" s="18">
-        <v>5</v>
-      </c>
-      <c r="F9" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
@@ -1409,17 +1375,14 @@
       <c r="E10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="16" t="s">
-        <v>32</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:F2">
+  <conditionalFormatting sqref="B2:E2">
     <cfRule type="beginsWith" dxfId="1" priority="3" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:F2">
+  <conditionalFormatting sqref="B2:E2">
     <cfRule type="beginsWith" dxfId="0" priority="4" operator="beginsWith" text="Not Working">
       <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>

--- a/ExecutionTestData/2/TestData.xlsx
+++ b/ExecutionTestData/2/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lastpririority batch\8device\2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\automation_workspace5\DBS_Automation\ExecutionTestData\2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="149">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -470,9 +470,6 @@
     <t>APPLE_iPhone7_iOS_14.4.0_589b8</t>
   </si>
   <si>
-    <t>APPLE_iPhoneSE_iOS_14.6.0_9d61f</t>
-  </si>
-  <si>
     <t>15.2.1</t>
   </si>
   <si>
@@ -480,9 +477,6 @@
   </si>
   <si>
     <t>14.4.0</t>
-  </si>
-  <si>
-    <t>14.6.0</t>
   </si>
   <si>
     <t>https://us.pcloudy.com</t>
@@ -555,7 +549,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -608,27 +602,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -680,7 +659,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1097,7 +1075,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1124,10 +1102,10 @@
         <v>5</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O2" s="11" t="s">
         <v>68</v>
@@ -1147,7 +1125,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1174,10 +1152,10 @@
         <v>5</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O3" s="5" t="s">
         <v>69</v>
@@ -1194,10 +1172,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1206,7 +1184,7 @@
     <col min="3" max="3" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
@@ -1219,28 +1197,22 @@
       <c r="D1" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="E1" s="21" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
@@ -1253,11 +1225,8 @@
       <c r="D3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
@@ -1270,11 +1239,8 @@
       <c r="D4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
@@ -1287,11 +1253,8 @@
       <c r="D5" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="E5" s="19" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
@@ -1304,11 +1267,8 @@
       <c r="D6" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
@@ -1321,11 +1281,8 @@
       <c r="D7" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
@@ -1338,11 +1295,8 @@
       <c r="D8" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -1355,11 +1309,8 @@
       <c r="D9" s="18">
         <v>5</v>
       </c>
-      <c r="E9" s="18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
@@ -1372,17 +1323,14 @@
       <c r="D10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="16" t="s">
-        <v>32</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:E2">
+  <conditionalFormatting sqref="B2:D2">
     <cfRule type="beginsWith" dxfId="1" priority="3" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:E2">
+  <conditionalFormatting sqref="B2:D2">
     <cfRule type="beginsWith" dxfId="0" priority="4" operator="beginsWith" text="Not Working">
       <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>
@@ -1487,7 +1435,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>53</v>
       </c>
       <c r="B2" t="s">
@@ -1552,7 +1500,7 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
+      <c r="A3" s="21"/>
       <c r="B3">
         <v>121212</v>
       </c>
@@ -1668,7 +1616,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="22" t="s">
         <v>60</v>
       </c>
       <c r="B12" t="s">
@@ -1694,7 +1642,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
+      <c r="A13" s="22"/>
       <c r="B13">
         <v>121212</v>
       </c>

--- a/ExecutionTestData/2/TestData.xlsx
+++ b/ExecutionTestData/2/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\automation_workspace5\DBS_Automation\ExecutionTestData\2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bl-device\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="146">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -245,6 +245,12 @@
     <t>M4520239IUID</t>
   </si>
   <si>
+    <t>divya.devi@crestechsoftware.com</t>
+  </si>
+  <si>
+    <t>r36d4py9mtkykt29c925c7mg</t>
+  </si>
+  <si>
     <t>dbs_android_UAT_7_10_003_532.apk</t>
   </si>
   <si>
@@ -446,9 +452,15 @@
     <t>OPPO_A53_Android_10.0.0_bd07c</t>
   </si>
   <si>
+    <t>11.0.0</t>
+  </si>
+  <si>
     <t>EndPoint</t>
   </si>
   <si>
+    <t>https://device.pcloudy.com</t>
+  </si>
+  <si>
     <t>Samsung</t>
   </si>
   <si>
@@ -461,31 +473,10 @@
     <t>121212</t>
   </si>
   <si>
-    <t>APPLE_iPhone11_iOS_15.2.1_51b24</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone13ProMax_iOS_15.0.2_2f19</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone7_iOS_14.4.0_589b8</t>
-  </si>
-  <si>
-    <t>15.2.1</t>
-  </si>
-  <si>
-    <t>15.0.2</t>
-  </si>
-  <si>
-    <t>14.4.0</t>
-  </si>
-  <si>
-    <t>https://us.pcloudy.com</t>
-  </si>
-  <si>
-    <t>shafqat.ali@crestechsoftware.com</t>
-  </si>
-  <si>
-    <t>53zsqk4ddnvzrsmysky84dn3</t>
+    <t>REALME_9i_Android_11.0.0_2410e</t>
+  </si>
+  <si>
+    <t>OPPO_A53_Android_11.0.0_bd07c</t>
   </si>
 </sst>
 </file>
@@ -549,7 +540,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -584,21 +575,6 @@
       </top>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,7 +634,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -670,7 +648,23 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC4125"/>
+          <bgColor rgb="FFCC4125"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -989,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1025,7 +1019,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1075,7 +1069,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1102,13 +1096,13 @@
         <v>5</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>147</v>
+        <v>68</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>148</v>
+        <v>69</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>21</v>
@@ -1125,7 +1119,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1152,13 +1146,13 @@
         <v>5</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>147</v>
+        <v>68</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>148</v>
+        <v>69</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>21</v>
@@ -1172,145 +1166,117 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37.85546875" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C9" s="18">
-        <v>4</v>
-      </c>
-      <c r="D9" s="18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
@@ -1320,19 +1286,26 @@
       <c r="C10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>32</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:D2">
-    <cfRule type="beginsWith" dxfId="1" priority="3" operator="beginsWith" text="Working">
+  <conditionalFormatting sqref="B2">
+    <cfRule type="beginsWith" dxfId="3" priority="7" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:D2">
+  <conditionalFormatting sqref="B2">
+    <cfRule type="beginsWith" dxfId="2" priority="8" operator="beginsWith" text="Not Working">
+      <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="beginsWith" dxfId="1" priority="3" operator="beginsWith" text="Working">
+      <formula>LEFT((C2),LEN("Working"))=("Working")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2">
     <cfRule type="beginsWith" dxfId="0" priority="4" operator="beginsWith" text="Not Working">
-      <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
+      <formula>LEFT((C2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1344,8 +1317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="U2" sqref="P2:U2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1720,327 +1693,327 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="13" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="13" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="13" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="13" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="13" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="13" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="13" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/ExecutionTestData/2/TestData.xlsx
+++ b/ExecutionTestData/2/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bl-device\1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\automation_workspace5\DBS_Automation\ExecutionTestData\2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="Capabilities" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="153">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>DBS</t>
+  </si>
+  <si>
+    <t>sakshi.juneja@crestechsoftware.com</t>
+  </si>
+  <si>
+    <t>t68k6kw68ywjv2y9zwfr9r3t</t>
   </si>
   <si>
     <t>S2021219EUID</t>
@@ -452,13 +458,22 @@
     <t>OPPO_A53_Android_10.0.0_bd07c</t>
   </si>
   <si>
-    <t>11.0.0</t>
-  </si>
-  <si>
     <t>EndPoint</t>
   </si>
   <si>
-    <t>https://device.pcloudy.com</t>
+    <t>iWEALTH</t>
+  </si>
+  <si>
+    <t>NSTRAX15</t>
+  </si>
+  <si>
+    <t>425455</t>
+  </si>
+  <si>
+    <t>NSTRAX10</t>
+  </si>
+  <si>
+    <t>872465</t>
   </si>
   <si>
     <t>Samsung</t>
@@ -470,13 +485,19 @@
     <t>9.0.0</t>
   </si>
   <si>
-    <t>121212</t>
-  </si>
-  <si>
-    <t>REALME_9i_Android_11.0.0_2410e</t>
-  </si>
-  <si>
-    <t>OPPO_A53_Android_11.0.0_bd07c</t>
+    <t>APPLE_iPhone11Pro_iOS_14.4.0_6ccce</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone12Pro_iOS_14.2.1_0d955</t>
+  </si>
+  <si>
+    <t>14.2.1</t>
+  </si>
+  <si>
+    <t>14.4.0</t>
+  </si>
+  <si>
+    <t>https://us.pcloudy.com</t>
   </si>
 </sst>
 </file>
@@ -526,7 +547,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -539,8 +560,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF00FFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -575,6 +608,21 @@
       </top>
       <bottom style="thin">
         <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,10 +681,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -648,40 +694,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCC4125"/>
-          <bgColor rgb="FFCC4125"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCC4125"/>
-          <bgColor rgb="FFCC4125"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -983,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1019,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1069,7 +1082,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1096,13 +1109,13 @@
         <v>5</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>21</v>
@@ -1119,7 +1132,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1146,13 +1159,13 @@
         <v>5</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>21</v>
@@ -1166,117 +1179,123 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.5703125" style="12" customWidth="1"/>
+    <col min="2" max="3" width="42.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>144</v>
+      <c r="B1" s="19" t="s">
+        <v>148</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9" s="18">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
@@ -1284,30 +1303,15 @@
         <v>32</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="beginsWith" dxfId="3" priority="7" operator="beginsWith" text="Working">
-      <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="beginsWith" dxfId="2" priority="8" operator="beginsWith" text="Not Working">
-      <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="beginsWith" dxfId="1" priority="3" operator="beginsWith" text="Working">
-      <formula>LEFT((C2),LEN("Working"))=("Working")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="beginsWith" dxfId="0" priority="4" operator="beginsWith" text="Not Working">
-      <formula>LEFT((C2),LEN("Not Working"))=("Not Working")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="45" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1317,8 +1321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:L2"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1409,67 +1413,67 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" t="s">
+        <v>51</v>
+      </c>
+      <c r="S2" t="s">
+        <v>52</v>
+      </c>
+      <c r="T2" t="s">
         <v>53</v>
       </c>
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>48</v>
-      </c>
-      <c r="R2" t="s">
-        <v>49</v>
-      </c>
-      <c r="S2" t="s">
-        <v>50</v>
-      </c>
-      <c r="T2" t="s">
-        <v>51</v>
-      </c>
       <c r="U2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -1537,32 +1541,32 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -1590,28 +1594,28 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -1640,32 +1644,32 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1693,327 +1697,327 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="13" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="13" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="13" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="13" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="13" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="13" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="13" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="13" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/ExecutionTestData/2/TestData.xlsx
+++ b/ExecutionTestData/2/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\automation_workspace5\DBS_Automation\ExecutionTestData\2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shafqat.ali\Desktop\jaya credential batches\2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Capabilities" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="150">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -458,9 +458,15 @@
     <t>OPPO_A53_Android_10.0.0_bd07c</t>
   </si>
   <si>
+    <t>11.0.0</t>
+  </si>
+  <si>
     <t>EndPoint</t>
   </si>
   <si>
+    <t>https://device.pcloudy.com</t>
+  </si>
+  <si>
     <t>iWEALTH</t>
   </si>
   <si>
@@ -483,21 +489,6 @@
   </si>
   <si>
     <t>9.0.0</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone11Pro_iOS_14.4.0_6ccce</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone12Pro_iOS_14.2.1_0d955</t>
-  </si>
-  <si>
-    <t>14.2.1</t>
-  </si>
-  <si>
-    <t>14.4.0</t>
-  </si>
-  <si>
-    <t>https://us.pcloudy.com</t>
   </si>
 </sst>
 </file>
@@ -996,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1032,7 +1023,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1082,7 +1073,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1132,7 +1123,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1181,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1195,10 +1186,10 @@
         <v>19</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>148</v>
+        <v>97</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>149</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1206,10 +1197,10 @@
         <v>20</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1217,10 +1208,10 @@
         <v>22</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1228,10 +1219,10 @@
         <v>23</v>
       </c>
       <c r="B4" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>143</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>141</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -1242,10 +1233,10 @@
         <v>24</v>
       </c>
       <c r="B5" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>144</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>142</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
@@ -1256,10 +1247,10 @@
         <v>27</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1267,10 +1258,10 @@
         <v>28</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1278,10 +1269,10 @@
         <v>29</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1303,7 +1294,7 @@
         <v>32</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">

--- a/ExecutionTestData/2/TestData.xlsx
+++ b/ExecutionTestData/2/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shafqat.ali\Desktop\jaya credential batches\2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shafqat.ali\Desktop\jaya credential batches\rerun batches\4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -458,9 +458,6 @@
     <t>OPPO_A53_Android_10.0.0_bd07c</t>
   </si>
   <si>
-    <t>11.0.0</t>
-  </si>
-  <si>
     <t>EndPoint</t>
   </si>
   <si>
@@ -489,6 +486,9 @@
   </si>
   <si>
     <t>9.0.0</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyJ4Plus_Android_9.0.0_94cc6</t>
   </si>
 </sst>
 </file>
@@ -1023,7 +1023,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1073,7 +1073,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1123,7 +1123,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1173,7 +1173,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1186,10 +1186,10 @@
         <v>19</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1197,10 +1197,10 @@
         <v>20</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1219,10 +1219,10 @@
         <v>23</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -1233,10 +1233,10 @@
         <v>24</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
@@ -1247,10 +1247,10 @@
         <v>27</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1258,10 +1258,10 @@
         <v>28</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1269,10 +1269,10 @@
         <v>29</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1294,7 +1294,7 @@
         <v>32</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">

--- a/ExecutionTestData/2/TestData.xlsx
+++ b/ExecutionTestData/2/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shafqat.ali\Desktop\jaya credential batches\6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\final run master testdata\2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Capabilities" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="159">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -121,12 +121,6 @@
   </si>
   <si>
     <t>DBS</t>
-  </si>
-  <si>
-    <t>sakshi.juneja@crestechsoftware.com</t>
-  </si>
-  <si>
-    <t>t68k6kw68ywjv2y9zwfr9r3t</t>
   </si>
   <si>
     <t>S2021219EUID</t>
@@ -467,21 +461,6 @@
     <t>https://device.pcloudy.com</t>
   </si>
   <si>
-    <t>iWEALTH</t>
-  </si>
-  <si>
-    <t>NSTRAX15</t>
-  </si>
-  <si>
-    <t>425455</t>
-  </si>
-  <si>
-    <t>NSTRAX10</t>
-  </si>
-  <si>
-    <t>872465</t>
-  </si>
-  <si>
     <t>Samsung</t>
   </si>
   <si>
@@ -491,17 +470,59 @@
     <t>9.0.0</t>
   </si>
   <si>
-    <t>SAMSUNG_GalaxyJ7Pro_Android_8.1.0_42e4e</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyM01_Android_11.0.0_7425f</t>
+    <t>121212</t>
+  </si>
+  <si>
+    <t>10.0.0</t>
+  </si>
+  <si>
+    <t>12.0.0</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyS10_Android_9.0.0_01e83</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyS10_Android_12.0.0_d2537</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyA72018_Android_10.0.0_ef0ba</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyM51_Android_11.0.0_9e3a9</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyNote10Plus_Android_12.0.0_513d6</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyA03_Android_11.0.0_0a1a4</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyA72_Android_12.0.0_0e2fb</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyTabA7_Android_11.0.0_6ddce</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyA32_Android_11.0.0_b62bd</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyTabS5e_Android_11.0.0_cb1ca</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyS21Plus_Android_12.0.0_53919</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyM32_Android_11.0.0_fe93b</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyF42_Android_11.0.0_aeb91</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -543,8 +564,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -555,18 +581,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FFFF9900"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FF00FFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -678,8 +692,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -994,7 +1008,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1079,7 +1093,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1106,13 +1120,13 @@
         <v>5</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>21</v>
@@ -1129,7 +1143,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1156,13 +1170,13 @@
         <v>5</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>21</v>
@@ -1176,40 +1190,152 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="3" max="3" width="42" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" customWidth="1"/>
+    <col min="8" max="16" width="17.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="L1" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="M1" s="20" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="N1" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="S1" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="T1" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="U1" s="20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="R2" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="S2" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="T2" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="U2" s="20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
@@ -1219,69 +1345,387 @@
       <c r="C3" s="17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="T3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="U3" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="U4" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="P5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="R5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="S5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="T5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="U5" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="S6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="T6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="U6" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="R7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="S7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="T7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="U7" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="R8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="S8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="T8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="U8" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -1291,8 +1735,62 @@
       <c r="C9" s="18">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D9" s="18">
+        <v>3</v>
+      </c>
+      <c r="E9" s="18">
+        <v>4</v>
+      </c>
+      <c r="F9" s="18">
+        <v>5</v>
+      </c>
+      <c r="G9" s="18">
+        <v>6</v>
+      </c>
+      <c r="H9" s="18">
+        <v>7</v>
+      </c>
+      <c r="I9" s="18">
+        <v>8</v>
+      </c>
+      <c r="J9" s="18">
+        <v>9</v>
+      </c>
+      <c r="K9" s="18">
+        <v>10</v>
+      </c>
+      <c r="L9" s="18">
+        <v>11</v>
+      </c>
+      <c r="M9" s="18">
+        <v>12</v>
+      </c>
+      <c r="N9" s="18">
+        <v>13</v>
+      </c>
+      <c r="O9" s="18">
+        <v>14</v>
+      </c>
+      <c r="P9" s="18">
+        <v>15</v>
+      </c>
+      <c r="Q9" s="18">
+        <v>16</v>
+      </c>
+      <c r="R9" s="18">
+        <v>17</v>
+      </c>
+      <c r="S9" s="18">
+        <v>18</v>
+      </c>
+      <c r="T9" s="18">
+        <v>19</v>
+      </c>
+      <c r="U9" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
@@ -1300,14 +1798,63 @@
         <v>32</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-    </row>
-    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>32</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="R10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="S10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="T10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="U10" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="45" orientation="portrait" r:id="rId1"/>
@@ -1318,8 +1865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:X3"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1410,67 +1957,67 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" t="s">
         <v>44</v>
       </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>45</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>46</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>47</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>48</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>49</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>50</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>51</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>52</v>
-      </c>
-      <c r="T2" t="s">
-        <v>53</v>
-      </c>
-      <c r="U2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -1538,32 +2085,32 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -1591,28 +2138,28 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
         <v>62</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>63</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>64</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>65</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>66</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
         <v>67</v>
-      </c>
-      <c r="G12" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -1641,32 +2188,32 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1694,327 +2241,327 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
